--- a/myapp/files/80_distances/distances_aggregate2.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>50.2914</v>
+        <v>50.2711</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>49.2299</v>
+        <v>49.1839</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3.7544</v>
+        <v>3.5426</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.8658</v>
+        <v>1.5811</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>7.2494</v>
+        <v>7.1369</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6.1123</v>
+        <v>6.1009</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>18.976</v>
+        <v>18.9541</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4652</v>
+        <v>18.4879</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>25.4068</v>
+        <v>25.307</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>28.0593</v>
+        <v>28.1331</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>17.0181</v>
+        <v>16.9981</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>15.6868</v>
+        <v>15.645</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>50.2711</v>
+        <v>50.2696</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>49.1839</v>
+        <v>49.186</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5426</v>
+        <v>3.542</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5811</v>
+        <v>1.5839</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>7.1369</v>
+        <v>7.1385</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6.1009</v>
+        <v>6.1027</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9541</v>
+        <v>18.9525</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4879</v>
+        <v>18.4884</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>25.307</v>
+        <v>25.3052</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>28.1331</v>
+        <v>28.1356</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>16.9981</v>
+        <v>16.9996</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>15.645</v>
+        <v>15.6466</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>25.6319</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2847</v>
+        <v>0.3274</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0601</v>
+        <v>0.0957</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0385</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>26.6861</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>28.584</v>
+        <v>0.3286</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4022</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>18.7086</v>
+        <v>0.1989</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>21.4197</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>19.6824</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>11.3421</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>15.5213</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>51.6743</v>
+        <v>0.5118</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>49.4259</v>
+        <v>0.5037</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>49.5244</v>
+        <v>0.5143</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5277</v>
+        <v>0.5143</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>52.0553</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>52.4845</v>
+        <v>0.6714</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>57.5826</v>
+        <v>0.7857</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>59.0279</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>53.4548</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>52.5471</v>
+        <v>0.6068</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>50.2696</v>
+        <v>0.5302</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>49.186</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>15.9315</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>15.6565</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>20.1464</v>
+        <v>0.2218</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>17.0931</v>
+        <v>0.1808</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>7.5905</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0161</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>12.6678</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>15.3225</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3.542</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5839</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>7.1385</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6.1027</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9525</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4884</v>
+        <v>0.2065</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>25.3052</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>28.1356</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>16.9996</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>15.6466</v>
+        <v>0.1695</v>
       </c>
     </row>
   </sheetData>
